--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_22.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1335968.143852645</v>
+        <v>1332494.173824346</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.95395642</v>
+        <v>189902.9539564198</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728807</v>
+        <v>9102620.618728815</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8229267.413673182</v>
+        <v>8229267.413673181</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>21.80312970792114</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.2425642047093</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -984,7 +984,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G6" t="n">
         <v>136.5310119231965</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>235.7412200973003</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>104.5113366705975</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>26.94389492651078</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>33.20988753395304</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>43.31785343913977</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,19 +1373,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>406.6448415275642</v>
+        <v>284.5615160058692</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>82.92375604299518</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>221.8736734170151</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1613,19 +1613,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>284.5615160058693</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.055538822593</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>221.0021786982958</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.595867353580316</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1889,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>128.78350070179</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>173.7001491014861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>339.0399185806814</v>
+        <v>334.5817096732195</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>43.99240337009266</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>94.63926978364023</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>339.0399185806818</v>
+        <v>323.9918595228949</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2415,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>162.336490673523</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>155.2114886365808</v>
       </c>
     </row>
     <row r="26">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>221.0021786982958</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,28 +2600,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>214.3236257226769</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>55.90301252244922</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>129.0246247964032</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2998,19 +2998,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>94.63926978364023</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,25 +3029,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>26.94389492651026</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3086,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>111.0497046617683</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3126,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
     </row>
     <row r="35">
@@ -3269,16 +3269,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>323.9918595228958</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>48.43260517378838</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3424,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>65.0588499087777</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3481,13 +3481,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3509,16 +3509,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>327.1485339723823</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>111.8822753849627</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3600,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3664,25 +3664,25 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>46.80807769362092</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>128.78350070179</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,19 +3740,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>221.0021786982965</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>26.94389492651026</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3901,19 +3901,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>81.25819606329402</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>78.6457199742288</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923383</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>321.7064610691117</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,25 +4022,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>339.7720709966782</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>114.3028656524354</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>269.027508828177</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1606.946621408918</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C2" t="n">
-        <v>1237.984104468507</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D2" t="n">
-        <v>879.7184058617563</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E2" t="n">
-        <v>493.9301532635121</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F2" t="n">
-        <v>493.9301532635121</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>75.96634516169894</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>75.96634516169894</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4413,16 +4413,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1210.087414675782</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C5" t="n">
-        <v>1210.087414675782</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.146500912455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.146500912455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.384715550547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.321828206976</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.553172936862</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1210.087414675782</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>1210.087414675782</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="6">
@@ -4632,13 +4632,13 @@
         <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,22 +4647,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610024</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W7" t="n">
-        <v>200.8329293182748</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>138.3857151273827</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1166.959449965771</v>
+        <v>159.5099885583417</v>
       </c>
       <c r="C8" t="n">
-        <v>797.9969330253592</v>
+        <v>159.5099885583417</v>
       </c>
       <c r="D8" t="n">
-        <v>439.7312344186087</v>
+        <v>159.5099885583417</v>
       </c>
       <c r="E8" t="n">
-        <v>53.94298182036446</v>
+        <v>159.5099885583417</v>
       </c>
       <c r="F8" t="n">
-        <v>53.94298182036446</v>
+        <v>159.5099885583417</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>159.5099885583417</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>159.5099885583417</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2669.933035536899</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2669.933035536899</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W8" t="n">
-        <v>2317.164380266785</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X8" t="n">
-        <v>1943.698622005704</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="Y8" t="n">
-        <v>1553.559290029893</v>
+        <v>546.1098286224635</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>550.5654064942405</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C10" t="n">
-        <v>550.5654064942405</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="D10" t="n">
-        <v>550.5654064942405</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="E10" t="n">
-        <v>517.0200655508536</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="F10" t="n">
-        <v>517.0200655508536</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="G10" t="n">
-        <v>348.020265289186</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>550.5654064942405</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y10" t="n">
-        <v>550.5654064942405</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1160.852583904131</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C11" t="n">
-        <v>791.8900669637194</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D11" t="n">
-        <v>791.8900669637194</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E11" t="n">
-        <v>791.8900669637194</v>
+        <v>752.3647613633752</v>
       </c>
       <c r="F11" t="n">
-        <v>791.8900669637194</v>
+        <v>341.3788565737677</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036444</v>
@@ -5042,10 +5042,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5075,16 +5075,16 @@
         <v>2642.120401548715</v>
       </c>
       <c r="V11" t="n">
-        <v>2311.057514205144</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W11" t="n">
-        <v>2311.057514205144</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X11" t="n">
-        <v>1937.591755944065</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="Y11" t="n">
-        <v>1547.452423968253</v>
+        <v>2251.981069572903</v>
       </c>
     </row>
     <row r="12">
@@ -5121,16 +5121,16 @@
         <v>53.94298182036444</v>
       </c>
       <c r="K12" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
         <v>2188.831293537797</v>
@@ -5221,25 +5221,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V13" t="n">
-        <v>502.7251118619119</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W13" t="n">
-        <v>502.7251118619119</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X13" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y13" t="n">
         <v>53.94298182036444</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1261.831893336434</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C14" t="n">
-        <v>892.8693763960225</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D14" t="n">
-        <v>534.603677789272</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E14" t="n">
-        <v>534.603677789272</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F14" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036444</v>
@@ -5279,10 +5279,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5303,25 +5303,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T14" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U14" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V14" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W14" t="n">
-        <v>1859.412473230863</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X14" t="n">
-        <v>1485.946714969783</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y14" t="n">
-        <v>1485.946714969783</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036444</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036444</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036444</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036444</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036444</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036444</v>
+        <v>208.54453618662</v>
       </c>
       <c r="H16" t="n">
         <v>53.94298182036444</v>
@@ -5464,22 +5464,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>936.2491605982757</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C17" t="n">
-        <v>567.286643657864</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D17" t="n">
-        <v>209.0209450511135</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E17" t="n">
-        <v>207.4089578252748</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F17" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533141</v>
@@ -5519,7 +5519,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5537,28 +5537,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V17" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W17" t="n">
-        <v>1309.714918859356</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X17" t="n">
-        <v>936.2491605982757</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y17" t="n">
-        <v>936.2491605982757</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5680,43 +5680,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U19" t="n">
-        <v>579.9823256406182</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V19" t="n">
-        <v>579.9823256406182</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X19" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y19" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1920.409918978289</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C20" t="n">
-        <v>1551.447402037877</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D20" t="n">
-        <v>1193.181703431127</v>
+        <v>1188.678462110458</v>
       </c>
       <c r="E20" t="n">
-        <v>807.3934508328825</v>
+        <v>802.8902095122139</v>
       </c>
       <c r="F20" t="n">
-        <v>396.407546043275</v>
+        <v>391.9043047226064</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224071</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5792,10 +5792,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y20" t="n">
-        <v>2307.009759042411</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="21">
@@ -5826,22 +5826,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641996</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
         <v>2188.831293537797</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.37975290126613</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C22" t="n">
-        <v>98.37975290126613</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D22" t="n">
-        <v>98.37975290126613</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E22" t="n">
-        <v>98.37975290126613</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F22" t="n">
-        <v>98.37975290126613</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5917,43 +5917,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T22" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U22" t="n">
-        <v>500.820796875036</v>
+        <v>438.955373861002</v>
       </c>
       <c r="V22" t="n">
-        <v>500.820796875036</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X22" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y22" t="n">
-        <v>280.0282177315058</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1920.409918978289</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C23" t="n">
-        <v>1551.447402037878</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D23" t="n">
-        <v>1193.181703431127</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E23" t="n">
-        <v>807.393450832883</v>
+        <v>792.1933911785527</v>
       </c>
       <c r="F23" t="n">
-        <v>396.4075460432754</v>
+        <v>381.2074863889451</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533136</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733122</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224069</v>
       </c>
       <c r="M23" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>2697.149091018223</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y23" t="n">
-        <v>2307.009759042411</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036469</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K24" t="n">
-        <v>309.1903022614632</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O24" t="n">
         <v>2188.831293537797</v>
@@ -6111,7 +6111,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W25" t="n">
-        <v>2407.731920981262</v>
+        <v>2407.731920981261</v>
       </c>
       <c r="X25" t="n">
-        <v>2407.731920981262</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="Y25" t="n">
-        <v>2186.939341837732</v>
+        <v>2022.963088632152</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1192.157102157134</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C26" t="n">
-        <v>823.1945852167225</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D26" t="n">
-        <v>464.928886609972</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E26" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6248,28 +6248,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T26" t="n">
-        <v>2249.454403031899</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U26" t="n">
-        <v>2249.454403031899</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V26" t="n">
-        <v>1918.391515688328</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W26" t="n">
-        <v>1565.622860418214</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X26" t="n">
-        <v>1192.157102157134</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y26" t="n">
-        <v>1192.157102157134</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6300,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O27" t="n">
         <v>2188.831293537797</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6391,43 +6391,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T28" t="n">
-        <v>671.6612947898188</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U28" t="n">
-        <v>671.6612947898188</v>
+        <v>438.955373861002</v>
       </c>
       <c r="V28" t="n">
-        <v>671.6612947898188</v>
+        <v>184.2708856551152</v>
       </c>
       <c r="W28" t="n">
-        <v>671.6612947898188</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X28" t="n">
-        <v>443.6717438918015</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="29">
@@ -6461,13 +6461,13 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6540,25 +6540,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K30" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6628,34 +6628,34 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S31" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T31" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U31" t="n">
-        <v>53.94298182036444</v>
+        <v>438.955373861002</v>
       </c>
       <c r="V31" t="n">
-        <v>53.94298182036444</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
         <v>53.94298182036444</v>
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1422.14692331494</v>
+        <v>1194.175505447094</v>
       </c>
       <c r="C32" t="n">
-        <v>1422.14692331494</v>
+        <v>825.2129885066827</v>
       </c>
       <c r="D32" t="n">
-        <v>1422.14692331494</v>
+        <v>466.9472898999322</v>
       </c>
       <c r="E32" t="n">
-        <v>1036.358670716696</v>
+        <v>81.15903730168793</v>
       </c>
       <c r="F32" t="n">
-        <v>625.3727659270879</v>
+        <v>81.15903730168793</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K32" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224071</v>
       </c>
       <c r="M32" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
         <v>1836.345445977174</v>
@@ -6722,28 +6722,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2311.057514205144</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>2198.886095354873</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X32" t="n">
-        <v>2198.886095354873</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y32" t="n">
-        <v>1808.746763379062</v>
+        <v>1580.775345511216</v>
       </c>
     </row>
     <row r="33">
@@ -6777,16 +6777,16 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6889,16 +6889,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U34" t="n">
-        <v>2567.064746875</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V34" t="n">
-        <v>2312.380258669113</v>
+        <v>2442.464602812335</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632152</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632152</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="Y34" t="n">
         <v>2022.963088632152</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.94416071721</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="C35" t="n">
-        <v>1177.981643776798</v>
+        <v>846.9187564332262</v>
       </c>
       <c r="D35" t="n">
-        <v>850.7171392082163</v>
+        <v>488.6530578264757</v>
       </c>
       <c r="E35" t="n">
-        <v>464.928886609972</v>
+        <v>102.8648052282315</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036446</v>
+        <v>102.8648052282315</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036471</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018223</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018223</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>1992.620445413571</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781331</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O36" t="n">
         <v>2188.831293537797</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036446</v>
+        <v>269.7756312415665</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036446</v>
+        <v>119.6589918292308</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7102,43 +7102,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V37" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W37" t="n">
-        <v>184.0273259635867</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694735</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1139.146815977588</v>
+        <v>750.1002187247733</v>
       </c>
       <c r="C38" t="n">
-        <v>770.1842990371767</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="D38" t="n">
-        <v>770.1842990371767</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E38" t="n">
-        <v>384.3960464389325</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F38" t="n">
-        <v>384.3960464389325</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224071</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7193,31 +7193,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2584.136691639472</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>2253.073804295901</v>
       </c>
       <c r="W38" t="n">
-        <v>2289.351746278602</v>
+        <v>1900.305149025787</v>
       </c>
       <c r="X38" t="n">
-        <v>1915.885988017522</v>
+        <v>1526.839390764707</v>
       </c>
       <c r="Y38" t="n">
-        <v>1525.74665604171</v>
+        <v>1136.700058788895</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O39" t="n">
         <v>2188.831293537797</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C40" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D40" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E40" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F40" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G40" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7339,43 +7339,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.915471247703</v>
+        <v>1194.175505447094</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.68094731003</v>
+        <v>825.2129885066827</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>466.9472898999322</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>81.15903730168793</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.654643287636</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.515311311824</v>
+        <v>1580.775345511216</v>
       </c>
     </row>
     <row r="42">
@@ -7485,19 +7485,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="C43" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="D43" t="n">
-        <v>578.0123447940985</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="E43" t="n">
-        <v>430.0992512117053</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="F43" t="n">
-        <v>430.0992512117053</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="G43" t="n">
-        <v>348.0202652891861</v>
+        <v>269.7120139078059</v>
       </c>
       <c r="H43" t="n">
         <v>190.2718927217162</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,43 +7576,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694735</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>576.3714747656866</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C44" t="n">
-        <v>207.4089578252748</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="D44" t="n">
-        <v>207.4089578252748</v>
+        <v>764.6872557005397</v>
       </c>
       <c r="E44" t="n">
-        <v>207.4089578252748</v>
+        <v>378.8990031022955</v>
       </c>
       <c r="F44" t="n">
-        <v>207.4089578252748</v>
+        <v>378.8990031022955</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036444</v>
@@ -7673,25 +7673,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V44" t="n">
-        <v>1662.483574129469</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W44" t="n">
-        <v>1309.714918859355</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X44" t="n">
-        <v>966.5108067414983</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y44" t="n">
-        <v>576.3714747656866</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036444</v>
+        <v>507.336405062904</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036444</v>
+        <v>338.4002221349971</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036444</v>
+        <v>338.4002221349971</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036444</v>
+        <v>338.4002221349971</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036444</v>
+        <v>338.4002221349971</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036444</v>
+        <v>169.4004218733295</v>
       </c>
       <c r="H46" t="n">
         <v>53.94298182036444</v>
@@ -7813,43 +7813,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U46" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V46" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W46" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X46" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y46" t="n">
-        <v>235.5914466506042</v>
+        <v>507.336405062904</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747117</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8781,7 +8781,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,7 +9252,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395179</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720734</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719086</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9492,7 +9492,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,7 +9729,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783527</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9963,10 +9963,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783527</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451766</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720734</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10431,13 +10431,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050823</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10671,13 +10671,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783527</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720734</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599053</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10911,10 +10911,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783527</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119844</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451766</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599044</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395179</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>130.1281865369401</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,16 +22592,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,10 +22610,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22711,22 +22711,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,22 +22750,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22781,25 +22781,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -22829,28 +22829,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1731486042621668</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22951,10 +22951,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>83.71149628510288</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -22963,7 +22963,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,22 +22987,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>50.7817782392907</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23021,13 +23021,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23039,7 +23039,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>47.41997957426375</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,19 +23066,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>224.2802725817785</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23176,7 +23176,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23185,22 +23185,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>113.2240751126161</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>123.9919488199111</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,10 +23221,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23242,10 +23242,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.139328493230778</v>
+        <v>129.2226540149258</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23315,13 +23315,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>142.1113494150891</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>28.98780970275092</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>160.8601682464655</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>85.16958467259974</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>3.11535001920214</v>
       </c>
       <c r="I16" t="n">
         <v>134.9656217923383</v>
@@ -23704,13 +23704,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>96.01048066168096</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>144.2707130727118</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>380.3345027186814</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23780,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23908,10 +23908,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,10 +23932,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23944,19 +23944,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>44.88450425060873</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>74.74425144011354</v>
+        <v>79.20246034757548</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24032,7 +24032,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,16 +24139,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>123.3173988889583</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24178,22 +24178,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401878</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24209,7 +24209,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>74.74425144011315</v>
+        <v>89.79231049790008</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17.49548950841429</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24382,10 +24382,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>63.37316471551401</v>
       </c>
     </row>
     <row r="26">
@@ -24440,22 +24440,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>144.2707130727118</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24491,25 +24491,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>2.12469463498087</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24619,10 +24619,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24652,22 +24652,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>169.1320929356351</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401878</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24856,10 +24856,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,25 +24880,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401878</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24917,25 +24917,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>386.8402750942847</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24974,13 +24974,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>238.1912640556447</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25096,7 +25096,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,7 +25117,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25129,7 +25129,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>157.4983735401879</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>89.80115265030491</v>
       </c>
     </row>
     <row r="35">
@@ -25157,16 +25157,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>30.69118209778719</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>365.3515648470066</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25211,7 +25211,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25312,13 +25312,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37511273779147</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25333,7 +25333,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25369,13 +25369,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25397,16 +25397,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>86.63563604841266</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25445,10 +25445,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>139.3418921233267</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25552,25 +25552,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>109.3628111481742</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25603,13 +25603,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25628,19 +25628,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>144.2707130727111</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>379.9321508152012</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25688,7 +25688,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25789,25 +25789,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>86.05160619575689</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>77.52516886756635</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,28 +25862,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>92.07770895168329</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25913,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>29.95902968179087</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,16 +26035,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>41.86802318935975</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26077,7 +26077,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>17.25436541380077</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>711682.0831084221</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>711682.0831084221</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="5">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>711682.0831084221</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>711682.0831084221</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>711682.0831084221</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="16">
@@ -26314,22 +26314,22 @@
         <v>318067.8710173335</v>
       </c>
       <c r="C2" t="n">
+        <v>318067.8710173335</v>
+      </c>
+      <c r="D2" t="n">
         <v>318067.8710173334</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>318067.8710173335</v>
       </c>
-      <c r="E2" t="n">
-        <v>318067.8710173333</v>
-      </c>
       <c r="F2" t="n">
-        <v>318067.8710173333</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="G2" t="n">
         <v>318067.8710173334</v>
       </c>
       <c r="H2" t="n">
-        <v>318067.8710173335</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="I2" t="n">
         <v>318067.8710173335</v>
@@ -26338,22 +26338,22 @@
         <v>318067.8710173334</v>
       </c>
       <c r="K2" t="n">
-        <v>318067.8710173335</v>
+        <v>318067.8710173332</v>
       </c>
       <c r="L2" t="n">
-        <v>318067.8710173333</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="M2" t="n">
         <v>318067.8710173335</v>
       </c>
       <c r="N2" t="n">
-        <v>318067.8710173334</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="O2" t="n">
-        <v>318067.8710173334</v>
+        <v>318067.8710173332</v>
       </c>
       <c r="P2" t="n">
-        <v>318067.8710173332</v>
+        <v>318067.8710173335</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="C4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="D4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="F4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="G4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="J4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="K4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="M4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="N4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="O4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26488,7 +26488,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
@@ -26500,13 +26500,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
         <v>49231.47806340946</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-372572.7993208164</v>
+        <v>-372988.0138302837</v>
       </c>
       <c r="C6" t="n">
-        <v>217395.079893728</v>
+        <v>216979.8653842608</v>
       </c>
       <c r="D6" t="n">
-        <v>217395.079893728</v>
+        <v>216979.8653842606</v>
       </c>
       <c r="E6" t="n">
-        <v>251022.679893728</v>
+        <v>250607.4653842608</v>
       </c>
       <c r="F6" t="n">
-        <v>251022.6798937279</v>
+        <v>250607.4653842608</v>
       </c>
       <c r="G6" t="n">
-        <v>251022.6798937279</v>
+        <v>250607.4653842606</v>
       </c>
       <c r="H6" t="n">
-        <v>251022.679893728</v>
+        <v>250607.4653842607</v>
       </c>
       <c r="I6" t="n">
-        <v>251022.679893728</v>
+        <v>250607.4653842608</v>
       </c>
       <c r="J6" t="n">
-        <v>74599.46070113503</v>
+        <v>74184.24619166774</v>
       </c>
       <c r="K6" t="n">
-        <v>251022.679893728</v>
+        <v>250607.4653842605</v>
       </c>
       <c r="L6" t="n">
-        <v>251022.6798937279</v>
+        <v>250607.4653842606</v>
       </c>
       <c r="M6" t="n">
-        <v>251022.679893728</v>
+        <v>250607.4653842608</v>
       </c>
       <c r="N6" t="n">
-        <v>251022.6798937279</v>
+        <v>250607.4653842608</v>
       </c>
       <c r="O6" t="n">
-        <v>251022.6798937279</v>
+        <v>250607.4653842605</v>
       </c>
       <c r="P6" t="n">
-        <v>251022.6798937278</v>
+        <v>250607.4653842608</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26750,34 +26750,34 @@
         <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545555</v>
@@ -26802,16 +26802,16 @@
         <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545555</v>
@@ -26820,13 +26820,13 @@
         <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545555</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K17" t="n">
         <v>193.1674799081577</v>
@@ -32245,25 +32245,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L18" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N18" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P18" t="n">
         <v>155.1528646479577</v>
@@ -32336,16 +32336,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M19" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N19" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K20" t="n">
         <v>193.1674799081577</v>
@@ -32482,25 +32482,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N21" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P21" t="n">
         <v>155.1528646479577</v>
@@ -32573,16 +32573,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M22" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N22" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K23" t="n">
         <v>193.1674799081577</v>
@@ -32719,25 +32719,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L24" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M24" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N24" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O24" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P24" t="n">
         <v>155.1528646479577</v>
@@ -32810,16 +32810,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M25" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N25" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K26" t="n">
         <v>193.1674799081577</v>
@@ -32956,25 +32956,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K27" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L27" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M27" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N27" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O27" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P27" t="n">
         <v>155.1528646479577</v>
@@ -33047,16 +33047,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M28" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N28" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K29" t="n">
         <v>193.1674799081577</v>
@@ -33193,25 +33193,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K30" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L30" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M30" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N30" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O30" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P30" t="n">
         <v>155.1528646479577</v>
@@ -33284,16 +33284,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M31" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N31" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33418,7 +33418,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K32" t="n">
         <v>193.1674799081577</v>
@@ -33430,7 +33430,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O32" t="n">
         <v>255.8615389119865</v>
@@ -33442,13 +33442,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L33" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N33" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O33" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P33" t="n">
         <v>155.1528646479577</v>
@@ -33521,16 +33521,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M34" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N34" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T34" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33655,7 +33655,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K35" t="n">
         <v>193.1674799081577</v>
@@ -33667,7 +33667,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O35" t="n">
         <v>255.8615389119865</v>
@@ -33679,13 +33679,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K36" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L36" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M36" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N36" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O36" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P36" t="n">
         <v>155.1528646479577</v>
@@ -33758,16 +33758,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M37" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N37" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T37" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33892,7 +33892,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K38" t="n">
         <v>193.1674799081577</v>
@@ -33904,7 +33904,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O38" t="n">
         <v>255.8615389119865</v>
@@ -33916,13 +33916,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L39" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M39" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N39" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O39" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P39" t="n">
         <v>155.1528646479577</v>
@@ -33995,16 +33995,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M40" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N40" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T40" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34129,7 +34129,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K41" t="n">
         <v>193.1674799081577</v>
@@ -34141,7 +34141,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O41" t="n">
         <v>255.8615389119865</v>
@@ -34153,13 +34153,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L42" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N42" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P42" t="n">
         <v>155.1528646479577</v>
@@ -34232,16 +34232,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M43" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N43" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T43" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34366,7 +34366,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K44" t="n">
         <v>193.1674799081577</v>
@@ -34378,7 +34378,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O44" t="n">
         <v>255.8615389119865</v>
@@ -34390,13 +34390,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L45" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N45" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P45" t="n">
         <v>155.1528646479577</v>
@@ -34469,16 +34469,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M46" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N46" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T46" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35501,7 +35501,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,7 +35735,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245897</v>
@@ -35744,7 +35744,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,10 +35896,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.392610473064</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N19" t="n">
         <v>148.370846145888</v>
@@ -36057,7 +36057,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181307</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36133,10 +36133,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624598</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M22" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N22" t="n">
         <v>148.370846145888</v>
@@ -36294,7 +36294,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36370,10 +36370,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L24" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N24" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262129</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
@@ -36516,13 +36516,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M25" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N25" t="n">
         <v>148.370846145888</v>
@@ -36531,7 +36531,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36607,10 +36607,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262129</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
@@ -36753,13 +36753,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M28" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N28" t="n">
         <v>148.370846145888</v>
@@ -36768,7 +36768,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36844,10 +36844,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,13 +36990,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M31" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N31" t="n">
         <v>148.370846145888</v>
@@ -37005,7 +37005,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181304</v>
+        <v>116.9372285181307</v>
       </c>
       <c r="K32" t="n">
         <v>297.2230414343419</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730088</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245897</v>
@@ -37227,13 +37227,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M34" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N34" t="n">
         <v>148.370846145888</v>
@@ -37242,7 +37242,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N36" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262129</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M37" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N37" t="n">
         <v>148.370846145888</v>
@@ -37479,7 +37479,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181307</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37561,7 +37561,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262129</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M40" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N40" t="n">
         <v>148.370846145888</v>
@@ -37716,7 +37716,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530451</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245897</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M43" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N43" t="n">
         <v>148.370846145888</v>
@@ -37953,7 +37953,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245897</v>
@@ -38114,7 +38114,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.392610473064</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M46" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N46" t="n">
         <v>148.370846145888</v>
@@ -38190,7 +38190,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1383521.760523812</v>
+        <v>1359742.074468367</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1918874.523826587</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4008798.132631244</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9900491.0034204</v>
+        <v>11161499.13848754</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>357.4847324689627</v>
+        <v>51.19565055111467</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>43.31785343913998</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>205.3743261851591</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>198.8475106630337</v>
       </c>
       <c r="G5" t="n">
-        <v>339.0399185806814</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>300.2994412657488</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>284.5615160058696</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1299,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>54.47555601903397</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.9566202902067</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>389.0396295043333</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>155.4526127311944</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>76.03219545093376</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>269.5134569480826</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>61.4222199825082</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229333</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>49.30642419397959</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>284.1113436488116</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>66.1408521553538</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>174.3062600431768</v>
+        <v>109.7395205132413</v>
       </c>
     </row>
     <row r="23">
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>102.0005969012859</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.2174302415107</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>206.806426921486</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>13.00407538591742</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,10 +2967,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>32.28492340924026</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3715833422294</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>161.4046520073175</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>160.0006879278783</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>140.5678108961698</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>28.01945746894914</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="F46" t="n">
-        <v>94.0176526770709</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1580.775345511217</v>
+        <v>1783.124109094748</v>
       </c>
       <c r="C2" t="n">
-        <v>1211.812828570805</v>
+        <v>1414.161592154336</v>
       </c>
       <c r="D2" t="n">
-        <v>1211.812828570805</v>
+        <v>1055.895893547586</v>
       </c>
       <c r="E2" t="n">
-        <v>826.0245759725606</v>
+        <v>670.1076409493417</v>
       </c>
       <c r="F2" t="n">
-        <v>415.038671182953</v>
+        <v>259.1217361597341</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X2" t="n">
-        <v>1970.914677487028</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y2" t="n">
-        <v>1580.775345511217</v>
+        <v>2169.72394915887</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.69838933464726</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>97.69838933464726</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>97.69838933464726</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>97.69838933464726</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>97.69838933464726</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>97.69838933464726</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>97.69838933464726</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.346854164887</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1920.409918978289</v>
+        <v>995.9506728057374</v>
       </c>
       <c r="C5" t="n">
-        <v>1551.447402037877</v>
+        <v>626.9881558653258</v>
       </c>
       <c r="D5" t="n">
-        <v>1193.181703431127</v>
+        <v>268.7224572585753</v>
       </c>
       <c r="E5" t="n">
-        <v>807.3934508328825</v>
+        <v>268.7224572585753</v>
       </c>
       <c r="F5" t="n">
-        <v>396.407546043275</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4600,19 +4600,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y5" t="n">
-        <v>2307.009759042411</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4667,22 +4667,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.381229508782</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.41871256837</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D8" t="n">
-        <v>1138.15301396162</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>752.3647613633757</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>341.3788565737681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4883,43 +4883,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810048</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>563.4023475952011</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1970.914677487028</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>1601.952160546617</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1243.686461939866</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>857.8982093416219</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>446.9123045520143</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280443</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.380435748108</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>1970.914677487028</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>1970.914677487028</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>210.965822962985</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C13" t="n">
-        <v>210.965822962985</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D13" t="n">
-        <v>210.965822962985</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E13" t="n">
-        <v>210.965822962985</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F13" t="n">
-        <v>210.965822962985</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866326</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>438.9553738610024</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>438.9553738610024</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W13" t="n">
-        <v>438.9553738610024</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X13" t="n">
-        <v>210.965822962985</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="Y13" t="n">
-        <v>210.965822962985</v>
+        <v>708.9934778008142</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1491.915471247701</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>1122.95295430729</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1122.95295430729</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>737.1647017090454</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>326.1787969194378</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036443</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036443</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224073</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280443</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.843319642689</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791251</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018221</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548715</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548715</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548715</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548715</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>2642.120401548715</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>2642.120401548715</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>2268.654643287635</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>1878.515311311823</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036443</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>309.1903022614629</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571346</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915165</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064341</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>559.1928012785272</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>409.0761618661915</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>409.0761618661915</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>409.0761618661915</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>240.0763616045239</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>190.2718927217162</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036443</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866326</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658208</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502498</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>649.26178935949</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064341</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064341</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064341</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064341</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064341</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064341</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064341</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064341</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064341</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064341</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5542,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1029.666285013068</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C19" t="n">
-        <v>860.7301020851612</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>710.6134626728254</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>562.7003690904323</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5676,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5706,19 +5706,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1211.935115357083</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>957.2506271511957</v>
       </c>
       <c r="W19" t="n">
-        <v>1498.916270557902</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="X19" t="n">
-        <v>1432.107328986838</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y19" t="n">
-        <v>1211.314749843308</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5758,7 +5758,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5837,13 +5837,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977054</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.200876391121</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5946,16 +5946,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.916270557902</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X22" t="n">
-        <v>1498.916270557902</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y22" t="n">
-        <v>1322.84934122136</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1141.200876391121</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632137</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>1244.231782352015</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>1244.231782352015</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>1244.231782352015</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6305,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6417,19 +6417,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>1298.996260473455</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>1298.996260473455</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>1298.996260473455</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>1298.996260473455</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6457,13 +6457,13 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4347.338425602348</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C31" t="n">
-        <v>4334.202995919603</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D31" t="n">
-        <v>4184.086356507268</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E31" t="n">
-        <v>4036.173262924875</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>3889.283315426964</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4749.779469576118</v>
+        <v>1466.305236811195</v>
       </c>
       <c r="U31" t="n">
-        <v>4749.779469576118</v>
+        <v>1177.176598024753</v>
       </c>
       <c r="V31" t="n">
-        <v>4749.779469576118</v>
+        <v>922.4921098188663</v>
       </c>
       <c r="W31" t="n">
-        <v>4749.779469576118</v>
+        <v>633.0749397819058</v>
       </c>
       <c r="X31" t="n">
-        <v>4749.779469576118</v>
+        <v>633.0749397819058</v>
       </c>
       <c r="Y31" t="n">
-        <v>4528.986890432588</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6700,10 +6700,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6727,10 +6727,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4326.074044281177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>4326.074044281177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>4175.957404868841</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>4028.044311286448</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3881.154363788537</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3712.979042108358</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3562.561033656301</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4326.074044281177</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4326.074044281177</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>4326.074044281177</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>4326.074044281177</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>4326.074044281177</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>4326.074044281177</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6928,10 +6928,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028562</v>
@@ -6940,25 +6940,25 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>711.072954880832</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="C37" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7128,19 +7128,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1275.130855347408</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>1275.130855347408</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>1113.513998854602</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y37" t="n">
-        <v>892.7214197110717</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4184.086356507268</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C40" t="n">
-        <v>4184.086356507268</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D40" t="n">
-        <v>4184.086356507268</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E40" t="n">
-        <v>4036.173262924875</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F40" t="n">
-        <v>3889.283315426964</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G40" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4326.074044281177</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>4184.086356507268</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>4184.086356507268</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>4184.086356507268</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>4184.086356507268</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y40" t="n">
-        <v>4184.086356507268</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="41">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>2881.956579893676</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>3128.721707800139</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M42" t="n">
-        <v>3436.041841080101</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N42" t="n">
-        <v>3765.904468744134</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
-        <v>4045.444533962831</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U43" t="n">
-        <v>675.007103038344</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324571</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>392.0201325405893</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>392.0201325405893</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1089.278254829645</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C46" t="n">
-        <v>920.3420719017386</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D46" t="n">
-        <v>770.2254324894028</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E46" t="n">
-        <v>622.3123389070097</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7839,19 +7839,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>1270.926719659885</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y46" t="n">
-        <v>1270.926719659885</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>230.7151863772036</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>359.906554245176</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270196</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9238900028835</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776759</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,16 +9485,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O21" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10354,10 +10354,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>234.4116509503158</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>56.29943755183228</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22707,28 +22707,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>91.64776835319824</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,25 +22749,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22798,13 +22798,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>74.74425144011354</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,16 +22941,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890124</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>129.2226540149254</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23235,19 +23235,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>231.8063182229438</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>24.74454051646165</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>11.85718952785655</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>142.552457901161</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>144.2707130727123</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>106.8644646478156</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23946,16 +23946,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>2.126008749765788</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>159.5688032336834</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>44.278393308918</v>
+        <v>108.8451328388535</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>77.83138328065138</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>33.08849621799476</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,19 +24417,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>23.61454994042657</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>154.2427457127104</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>189.262637649149</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>8.047662122042553</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>5.842169091310353</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>65.70896746115884</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>145.6695415024076</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25794,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>258.5035408676418</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>27.94407814005706</v>
       </c>
       <c r="F46" t="n">
-        <v>51.40339534586035</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>711682.0831084221</v>
+        <v>1002965.942907744</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>711682.083108422</v>
+        <v>1002965.942907744</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>711682.0831084221</v>
+        <v>1002965.942907744</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>711682.0831084221</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>711682.083108422</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>952727.6193013649</v>
+        <v>952727.619301365</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>952727.619301365</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>952727.619301365</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>952727.619301365</v>
+        <v>952727.6193013648</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>952727.619301365</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="15">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
-        <v>318067.8710173335</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="F2" t="n">
-        <v>318067.8710173334</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="G2" t="n">
-        <v>430131.9657114796</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="H2" t="n">
-        <v>430131.9657114796</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="I2" t="n">
         <v>430131.9657114797</v>
       </c>
       <c r="J2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="K2" t="n">
         <v>430131.9657114798</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>500180.5412663653</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>130174.4719869591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18228.92756966326</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>18228.92756966326</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>18228.92756966326</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>18228.92756966326</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>18228.92756966326</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340945</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26496,10 +26496,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-372988.0138302838</v>
+        <v>-378028.9421038205</v>
       </c>
       <c r="C6" t="n">
-        <v>216979.8653842608</v>
+        <v>211938.937110724</v>
       </c>
       <c r="D6" t="n">
-        <v>216979.8653842607</v>
+        <v>211938.9371107239</v>
       </c>
       <c r="E6" t="n">
-        <v>250607.4653842608</v>
+        <v>-203035.6575952934</v>
       </c>
       <c r="F6" t="n">
-        <v>250607.4653842607</v>
+        <v>322124.3788816023</v>
       </c>
       <c r="G6" t="n">
-        <v>-177081.5711250414</v>
+        <v>322124.3788816023</v>
       </c>
       <c r="H6" t="n">
-        <v>323098.9701413237</v>
+        <v>322124.3788816023</v>
       </c>
       <c r="I6" t="n">
-        <v>323098.970141324</v>
+        <v>322124.3788816023</v>
       </c>
       <c r="J6" t="n">
-        <v>146675.750948731</v>
+        <v>145701.1596890095</v>
       </c>
       <c r="K6" t="n">
-        <v>323098.9701413241</v>
+        <v>322124.3788816024</v>
       </c>
       <c r="L6" t="n">
-        <v>323098.970141324</v>
+        <v>322124.3788816023</v>
       </c>
       <c r="M6" t="n">
-        <v>323098.9701413241</v>
+        <v>187323.3636477654</v>
       </c>
       <c r="N6" t="n">
-        <v>323098.970141324</v>
+        <v>322124.3788816023</v>
       </c>
       <c r="O6" t="n">
-        <v>192924.4981543651</v>
+        <v>322124.3788816024</v>
       </c>
       <c r="P6" t="n">
-        <v>323098.9701413241</v>
+        <v>322124.3788816024</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170865</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26764,10 +26764,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545554</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>452.6387412370136</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>540.9263704990177</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>540.9263704990177</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>540.9263704990177</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>362.5885194696803</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>19.6607792729252</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>208.0285350786777</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27779,25 +27779,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>64.97345050525871</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>118.1810230336213</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727435</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338303</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633794</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727381</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473551</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188912</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890688</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396473</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649101</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983121</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923046</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>50.4465972703498</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372664</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078609</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>6.05628366564444</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813576</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302236</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246924</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>106.7776065917249</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175841</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383798</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678006</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695335</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32320,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>479.9728913332278</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355128</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031297</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262937</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>515.9012490932201</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713951</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535655</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>148.370846145888</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873147</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O21" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315247</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>384.9870895382551</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1359742.074468367</v>
+        <v>1379155.590014171</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2083705.798332966</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>3522967.67585558</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11161499.13848754</v>
+        <v>10100942.61497029</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>51.19565055111467</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>95.94540487739395</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>205.3743261851591</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>200.5196897930037</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>198.8475106630337</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>138.3038958997682</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>300.2994412657488</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>85.77646328132776</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>176.0251356438853</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>133.9566202902067</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113166</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>345.4688119981373</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>45.44580843958671</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.90078060183517</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>249.9048605514346</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>76.03219545093376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>259.6113906326492</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>20.90078060183529</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.58515663460532</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>284.1113436488116</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>125.9434024640778</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>73.0083725945403</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>109.7395205132413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>73.97351314171614</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>206.806426921486</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>85.39633870205157</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>32.28492340924026</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>183.1796758467</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>161.4046520073175</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>35.84258630948315</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>143.4367313547846</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>206.806426921486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>206.806426921486</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1783.124109094748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="C2" t="n">
-        <v>1414.161592154336</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="D2" t="n">
-        <v>1055.895893547586</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E2" t="n">
-        <v>670.1076409493417</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F2" t="n">
-        <v>259.1217361597341</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4327,55 +4327,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2545.20585116751</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2326.571184139573</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2072.809398777664</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>1741.746511434094</v>
       </c>
       <c r="W2" t="n">
-        <v>2169.72394915887</v>
+        <v>1388.97785616398</v>
       </c>
       <c r="X2" t="n">
-        <v>2169.72394915887</v>
+        <v>1015.5120979029</v>
       </c>
       <c r="Y2" t="n">
-        <v>2169.72394915887</v>
+        <v>625.3727659270879</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>2317.040372100975</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>2317.040372100975</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>2317.040372100975</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>2317.040372100975</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2317.040372100975</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2317.040372100975</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>2317.040372100975</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>2317.040372100975</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>2317.040372100975</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>2317.040372100975</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>995.9506728057374</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C5" t="n">
-        <v>626.9881558653258</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>268.7224572585753</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>268.7224572585753</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.090004781549</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y5" t="n">
-        <v>995.9506728057374</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4667,22 +4667,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>184.027325963587</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>184.027325963587</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>378.1446555862789</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="C8" t="n">
-        <v>74.81188663097703</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,7 +4804,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626212</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y8" t="n">
-        <v>764.7444956504007</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>563.4023475952011</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>563.4023475952011</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>563.4023475952011</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="V10" t="n">
-        <v>563.4023475952011</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="W10" t="n">
-        <v>563.4023475952011</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="X10" t="n">
-        <v>563.4023475952011</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="Y10" t="n">
-        <v>563.4023475952011</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>1922.31916026309</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>1553.356643322678</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1195.090944715928</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>809.3026921176837</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>809.3026921176837</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>392.2149103541112</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>666.0988071604017</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.629876389912</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449758</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216835</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>3454.41379555613</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>3543.374718827858</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>3328.574857095569</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>3328.574857095569</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>2997.511969751999</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>2644.743314481884</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>2271.277556220804</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>1922.31916026309</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>192.6510469835162</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>260.258866646873</v>
       </c>
       <c r="L12" t="n">
-        <v>1024.771599890052</v>
+        <v>397.4884646625667</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1038.033814129671</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1711.239506382453</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2209.632142884837</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R12" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S12" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.3450129705744</v>
+        <v>242.9279780545275</v>
       </c>
       <c r="C13" t="n">
-        <v>527.3450129705744</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3450129705744</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>175.0397247222303</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>359.8727196230485</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>565.1423203422863</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783905</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669892</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165605</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>784.7743001636443</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.21084526296</v>
+        <v>532.3451480914881</v>
       </c>
       <c r="W13" t="n">
-        <v>785.7936752259998</v>
+        <v>242.9279780545275</v>
       </c>
       <c r="X13" t="n">
-        <v>785.7936752259998</v>
+        <v>242.9279780545275</v>
       </c>
       <c r="Y13" t="n">
-        <v>708.9934778008142</v>
+        <v>242.9279780545275</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2035.910253889014</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>1666.947736948603</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1308.682038341852</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>922.8937857436081</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>3074.883153840715</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3074.883153840715</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3074.883153840715</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>2812.649425928948</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2422.510093953136</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914995</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>403.4201994324299</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>907.7817392985478</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1087.279075653152</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1760.484767905933</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2309.920776658656</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R15" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>904.9902936580561</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>754.8736542457203</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>606.9605606633272</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>460.0706131654168</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>291.4637681608002</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>137.2091250605653</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>359.872719623048</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>565.1423203422855</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783894</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669879</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201016</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>1073.926476585963</v>
       </c>
     </row>
     <row r="17">
@@ -5497,34 +5497,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5603,7 +5603,7 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
         <v>2051.878056918008</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404652</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5706,19 +5706,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1211.935115357083</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>957.2506271511957</v>
+        <v>1371.700712513379</v>
       </c>
       <c r="W19" t="n">
-        <v>667.8334571142351</v>
+        <v>1082.283542476419</v>
       </c>
       <c r="X19" t="n">
-        <v>667.8334571142351</v>
+        <v>1082.283542476419</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.040877970705</v>
+        <v>861.4909633328887</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>434.3285960683721</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>317.8528698617723</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>170.9629223638619</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150548</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170374</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y22" t="n">
-        <v>615.9770608986119</v>
+        <v>465.7659634441654</v>
       </c>
     </row>
     <row r="23">
@@ -5971,31 +5971,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201016</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.9110074201016</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6305,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>616.8574922980929</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>466.7408528857571</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>318.827759303364</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>171.9378118054537</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6414,22 +6414,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>785.7936752259998</v>
       </c>
     </row>
     <row r="29">
@@ -6457,25 +6457,25 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>412.2823606383756</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C31" t="n">
-        <v>412.2823606383756</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D31" t="n">
-        <v>412.2823606383756</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1466.305236811195</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1177.176598024753</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>922.4921098188663</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>633.0749397819058</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>633.0749397819058</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y31" t="n">
-        <v>412.2823606383756</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6688,10 +6688,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6700,10 +6700,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6727,22 +6727,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6885,22 +6885,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
         <v>97.21709146028584</v>
@@ -6919,43 +6919,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>260.2520934878793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,19 +7174,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>213.9110074201016</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="C40" t="n">
-        <v>213.9110074201016</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="D40" t="n">
-        <v>213.9110074201016</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E40" t="n">
-        <v>213.9110074201016</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F40" t="n">
-        <v>213.9110074201016</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>1173.582999135619</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>884.1658290986585</v>
       </c>
       <c r="X40" t="n">
-        <v>213.9110074201016</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="Y40" t="n">
-        <v>213.9110074201016</v>
+        <v>656.1762782006411</v>
       </c>
     </row>
     <row r="41">
@@ -7390,52 +7390,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>390.0157722697342</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>390.0157722697342</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>390.0157722697342</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>242.102678687341</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>242.102678687341</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1090.100879744681</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>792.456816243504</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>571.6642370999739</v>
       </c>
     </row>
     <row r="44">
@@ -7651,10 +7651,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7666,10 +7666,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>437.6964226305959</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>230.7151863772036</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>342.3033574077002</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6.233205181928668</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>7.083830627504582</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9251,10 +9251,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>78.47030793157755</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22704,22 +22704,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22728,7 +22728,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22755,25 +22755,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>51.61795353082428</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22840,19 +22840,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>189.4483625703667</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>16.63754732114094</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23023,16 +23023,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>321.0995824603837</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23083,10 +23083,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -23190,19 +23190,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>49.00996981419894</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>40.76912665791633</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>17.69584188176906</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>2.232782772393421</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.552457901161</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>110.1197100458198</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,28 +23655,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>60.68140124481175</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23946,10 +23946,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>2.126008749765788</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>126.1942408597502</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>93.48519586883728</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>108.8451328388535</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>36.51615797628583</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>33.08849621799476</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>92.52005532166145</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>79.43092547709136</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>61.03762394451761</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>189.262637649149</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>103.0576765518773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>5.842169091310353</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25554,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>50.96659166315999</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>216.2950570143448</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>23.05683710859299</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>14.74113413690327</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>27.94407814005706</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1002965.942907744</v>
+        <v>711682.0831084221</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1002965.942907744</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1002965.942907744</v>
+        <v>711682.0831084221</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>952727.6193013649</v>
+        <v>826633.0799895168</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>952727.6193013649</v>
+        <v>826633.0799895163</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>952727.6193013649</v>
+        <v>952727.6193013648</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>952727.619301365</v>
+        <v>952727.6193013648</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>952727.6193013648</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>952727.6193013649</v>
+        <v>952727.619301365</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="E2" t="n">
-        <v>430131.9657114798</v>
+        <v>371509.2212626561</v>
       </c>
       <c r="F2" t="n">
-        <v>430131.9657114797</v>
+        <v>371509.2212626556</v>
       </c>
       <c r="G2" t="n">
         <v>430131.9657114797</v>
@@ -26334,25 +26334,25 @@
         <v>430131.9657114797</v>
       </c>
       <c r="I2" t="n">
+        <v>430131.9657114798</v>
+      </c>
+      <c r="J2" t="n">
         <v>430131.9657114797</v>
-      </c>
-      <c r="J2" t="n">
-        <v>430131.9657114798</v>
       </c>
       <c r="K2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="L2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="M2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="N2" t="n">
+        <v>430131.9657114798</v>
+      </c>
+      <c r="O2" t="n">
         <v>430131.9657114797</v>
-      </c>
-      <c r="O2" t="n">
-        <v>430131.9657114798</v>
       </c>
       <c r="P2" t="n">
         <v>430131.9657114798</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>248146.7686188439</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>263762.8892659103</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>62453.05588965323</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>69864.88484991129</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156774.9582512226</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="C4" t="n">
-        <v>156774.9582512226</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>16707.03278084644</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>16707.03278084644</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>69171.54328360147</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26496,10 +26496,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-378028.9421038205</v>
+        <v>-373594.8552048657</v>
       </c>
       <c r="C6" t="n">
-        <v>211938.937110724</v>
+        <v>216373.0240096788</v>
       </c>
       <c r="D6" t="n">
-        <v>211938.9371107239</v>
+        <v>216373.0240096789</v>
       </c>
       <c r="E6" t="n">
-        <v>-203035.6575952934</v>
+        <v>37119.95043317023</v>
       </c>
       <c r="F6" t="n">
-        <v>322124.3788816023</v>
+        <v>285266.7190520148</v>
       </c>
       <c r="G6" t="n">
-        <v>322124.3788816023</v>
+        <v>59238.62174944152</v>
       </c>
       <c r="H6" t="n">
-        <v>322124.3788816023</v>
+        <v>323001.5110153518</v>
       </c>
       <c r="I6" t="n">
-        <v>322124.3788816023</v>
+        <v>323001.5110153519</v>
       </c>
       <c r="J6" t="n">
-        <v>145701.1596890095</v>
+        <v>146578.2918227588</v>
       </c>
       <c r="K6" t="n">
-        <v>322124.3788816024</v>
+        <v>323001.5110153519</v>
       </c>
       <c r="L6" t="n">
-        <v>322124.3788816023</v>
+        <v>323001.5110153519</v>
       </c>
       <c r="M6" t="n">
-        <v>187323.3636477654</v>
+        <v>260548.4551256986</v>
       </c>
       <c r="N6" t="n">
-        <v>322124.3788816023</v>
+        <v>323001.5110153522</v>
       </c>
       <c r="O6" t="n">
-        <v>322124.3788816024</v>
+        <v>253136.6261654405</v>
       </c>
       <c r="P6" t="n">
-        <v>322124.3788816024</v>
+        <v>323001.5110153519</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>593.4761003380645</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>593.4761003380636</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26764,10 +26764,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827575</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>215.7324361209779</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>236.9063051160366</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>250.6101663282019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>290.3162041708168</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>250.6101663282019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708171</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>250.6101663282019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708168</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>362.5885194696803</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>19.6607792729252</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>208.0285350786777</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27779,25 +27779,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>123.9289676594881</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>64.97345050525871</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>118.1810230336213</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651553</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>202.4946418937399</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779018</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>376.5024309712527</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>425.7102483359666</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822515</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>343.0858495426697</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411495</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>54.36718245810512</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>12.328626159853</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>43.95082441182837</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>277.1701353512819</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>323.4444746842451</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>332.005087490065</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>303.7197925947074</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>243.7619099671571</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080797</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>5.145325813308312</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897143</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838207007</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490372</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441089</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104774</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>48.12020970937813</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685359</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>4.57268470752279</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>24.43391804055152</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651539</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>425.710248335966</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822509</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>43.9508244118283</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>323.4444746842446</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>332.0050874900645</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080784</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>5.145325813308304</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.0839824670289713</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838206993</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490361</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>89.6148911510476</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>48.12020970937806</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>4.572684707522783</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>190.5453525391274</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>407.542538404086</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517159</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>638.0987989730419</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513599</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233101</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588828</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312126</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>119.8578301584804</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>68.29072693268367</v>
       </c>
       <c r="L12" t="n">
-        <v>479.9728913332278</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>647.0155045122267</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>680.0057497502852</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>503.4269055579632</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>428.250271192764</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>22.96660727472405</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493113</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233375</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>3.452847899353358</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>638.0987989730412</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513592</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>332.755963945262</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>181.3104407622263</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>116.8713331803311</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>3.452847899353216</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35971,10 +35971,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
